--- a/Saga do dinheiro infinito plan 01.xlsx
+++ b/Saga do dinheiro infinito plan 01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E9A60C-2842-45F2-BAD0-4C14258B2E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E862971C-5C1F-44AA-8ECF-B88A2149DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{49B9F099-4E89-4441-A986-BE9EE2D8F7DD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Dim" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dados!$A$1:$R$530</definedName>
     <definedName name="DadosExternos_1" localSheetId="1" hidden="1">Dim!$A$1:$B$530</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="581">
   <si>
     <t>Papel</t>
   </si>
@@ -1721,6 +1721,66 @@
   </si>
   <si>
     <t>Column2</t>
+  </si>
+  <si>
+    <t> Um "título" negociado na bolsa de valores (uma ação de empresa ou uma cota de um fundo imobiliário).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> O setor ou área de atuação de uma empresa ou fundo (ex.: shoppings, hospitais, tijolo, papel).</t>
+  </si>
+  <si>
+    <t>O preço de uma unidade do "papel" no mercado no momento.</t>
+  </si>
+  <si>
+    <t>Mede o retorno do investimento com base no lucro operacional real do fundo (FFO). É um indicador mais preciso para fundos imobiliários que o Dividend Yield.</t>
+  </si>
+  <si>
+    <t>O retorno do investimento com base nos dividendos ou distribuições de rendimento já pagos no passado.</t>
+  </si>
+  <si>
+    <t>(Preço sobre Valor Patrimonial): Compara o preço de mercado do papel com seu valor patrimonial líquido. P/VP &lt; 1 pode indicar que está "barato".</t>
+  </si>
+  <si>
+    <t>O valor total da empresa ou fundo, calculado pela cotação multiplicada pelo número total de papéis.</t>
+  </si>
+  <si>
+    <t>Facilidade de comprar ou vender o papel sem afetar muito seu preço. Geralmente medida pelo volume financeiro negociado.</t>
+  </si>
+  <si>
+    <t>Número total de propriedades no portfólio de um fundo imobiliário.</t>
+  </si>
+  <si>
+    <t>O valor de mercado de um metro quadrado de um imóvel ou de um portfólio.</t>
+  </si>
+  <si>
+    <t>O valor do aluguel cobrado por metro quadrado de um imóvel.</t>
+  </si>
+  <si>
+    <t>(Taxa de Capitalização): Mede o retorno potencial de um imóvel, comparando seu rendimento líquido anual com seu valor de mercado. Usado para avaliar a qualidade do negócio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A porcentagem de área total disponível para aluguel que está desocupada em um portfólio.</t>
+  </si>
+  <si>
+    <t>Estimativa do rendimento em porcentagem que o papel deve pagar no próximo mês.</t>
+  </si>
+  <si>
+    <t>Estimativa do valor em reais (R$) que o papel deve pagar por cota no próximo mês.</t>
+  </si>
+  <si>
+    <t>"numero magico" Quantidade de ações que ao comprar os dividendos sejam maior que o valor de uma cotação (ou seja se pagem)</t>
+  </si>
+  <si>
+    <t>Valor pago ao multiplicar a quantidade a cima pela cota de cada ffi</t>
+  </si>
+  <si>
+    <t>o valor que pretendemos receber em duviden o maior ou igual ao preço do papel</t>
+  </si>
+  <si>
+    <t>Coluna</t>
+  </si>
+  <si>
+    <t>Descrição</t>
   </si>
 </sst>
 </file>
@@ -1730,7 +1790,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1753,6 +1813,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1768,12 +1836,68 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1782,7 +1906,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1793,7 +1917,16 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -2138,29 +2271,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B98634-3C44-4E55-82FB-5EBA1C26B064}">
   <dimension ref="A1:R530"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -35018,7 +35152,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{94B98634-3C44-4E55-82FB-5EBA1C26B064}"/>
+  <autoFilter ref="A1:R530" xr:uid="{94B98634-3C44-4E55-82FB-5EBA1C26B064}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -35028,820 +35162,856 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F54123C-3F7D-4577-A233-9C5B558942C8}">
   <dimension ref="A1:E530"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="149.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>559</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2">
         <v>7.56</v>
       </c>
-      <c r="E2" t="s">
-        <v>0</v>
+      <c r="D2" s="19" t="s">
+        <v>579</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" t="s">
+      <c r="D3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="12" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="10"/>
-      <c r="E5" t="s">
+      <c r="E5" s="12" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="10">
-        <v>10.050000000000001</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E6" s="12" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>94.34</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="10">
-        <v>94.34</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E7" s="12" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="E8" t="s">
+      <c r="E8" s="12" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="E9" t="s">
+      <c r="E9" s="12" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>8.17</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="10">
-        <v>8.17</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="E10" s="12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>51.27</v>
+      </c>
+      <c r="D11" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="10">
-        <v>51.27</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="E11" s="12" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>7.75</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="10">
-        <v>7.75</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E12" s="12" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>599.82000000000005</v>
+      </c>
+      <c r="D13" s="11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="10">
-        <v>599.82000000000005</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E13" s="12" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>7.73</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="10">
-        <v>7.73</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E14" s="12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>10.55</v>
+      </c>
+      <c r="D16" s="14" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="10">
+      <c r="E16" s="12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>247.5</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>8.41</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20">
+        <v>79.03</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>558</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>10888</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>50.99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>76.209999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29">
+        <v>7.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33">
+        <v>63.93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39">
+        <v>83.27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40">
+        <v>62.89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46">
+        <v>93.95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50">
+        <v>88.99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>71</v>
+      </c>
+      <c r="B52">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54">
+        <v>94.61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55">
+        <v>71.989999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56">
+        <v>54.52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57">
+        <v>79.41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>114.56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60">
+        <v>42.96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63">
+        <v>759.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65">
+        <v>52.91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66">
+        <v>79.400000000000006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70">
+        <v>41.49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+      <c r="B71">
+        <v>103.99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72">
+        <v>111.28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>95</v>
+      </c>
+      <c r="B74">
+        <v>150.94999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>96</v>
+      </c>
+      <c r="B75">
+        <v>109.53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76">
+        <v>103.22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78">
+        <v>1170.21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79">
+        <v>74.36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84">
+        <v>100.07</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85">
+        <v>45.11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86">
+        <v>250.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87">
+        <v>530.01</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89">
+        <v>88.21</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94">
+        <v>12.24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>118</v>
+      </c>
+      <c r="B96">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>120</v>
+      </c>
+      <c r="B98">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99">
         <v>10.55</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="E17" s="9" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="10">
-        <v>247.5</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="10">
-        <v>8.41</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="10">
-        <v>79.03</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="10">
-        <v>6.55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="10">
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="10"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="10">
-        <v>10888</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B27" s="10">
-        <v>50.99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="10">
-        <v>76.209999999999994</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="10">
-        <v>7.65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="10">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="10">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="10">
-        <v>63.93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="10">
-        <v>6.94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="10"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="10">
-        <v>98.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="10"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="10"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="10">
-        <v>83.27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="10">
-        <v>62.89</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="10">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="10">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="10">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B45" s="10">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="10">
-        <v>93.95</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47" s="10"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="B48" s="10"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="10">
-        <v>33.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B50" s="10">
-        <v>88.99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="10"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="10">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="10"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="10">
-        <v>94.61</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="10">
-        <v>71.989999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="10">
-        <v>54.52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="10">
-        <v>79.41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="10"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="10">
-        <v>114.56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" s="10">
-        <v>42.96</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B61" s="10"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="10">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="10">
-        <v>759.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="10"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="10">
-        <v>52.91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="10">
-        <v>79.400000000000006</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" s="10">
-        <v>9.36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="10"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="10">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="10">
-        <v>41.49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="10">
-        <v>103.99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B72" s="10">
-        <v>111.28</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="10">
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="10">
-        <v>150.94999999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="10">
-        <v>109.53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B76" s="10">
-        <v>103.22</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="10">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="10">
-        <v>1170.21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B79" s="10">
-        <v>74.36</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" s="10">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B81" s="10">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="10">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B83" s="10"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B84" s="10">
-        <v>100.07</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B85" s="10">
-        <v>45.11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B86" s="10">
-        <v>250.1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B87" s="10">
-        <v>530.01</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B88" s="10">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B89" s="10">
-        <v>88.21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B90" s="10">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B91" s="10"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B92" s="10"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B93" s="10"/>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B94" s="10">
-        <v>12.24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B95" s="10">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B96" s="10">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B97" s="10">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B98" s="10">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B99" s="10">
-        <v>10.55</v>
-      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
+      <c r="A100" t="s">
         <v>122</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100">
         <v>96.75</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
+      <c r="A101" t="s">
         <v>123</v>
       </c>
       <c r="B101">
@@ -35849,7 +36019,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
+      <c r="A102" t="s">
         <v>124</v>
       </c>
       <c r="B102">
@@ -35857,7 +36027,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
+      <c r="A103" t="s">
         <v>125</v>
       </c>
       <c r="B103">
@@ -35865,7 +36035,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
+      <c r="A104" t="s">
         <v>126</v>
       </c>
       <c r="B104">
@@ -35873,7 +36043,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
+      <c r="A105" t="s">
         <v>127</v>
       </c>
       <c r="B105">
@@ -35881,7 +36051,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
+      <c r="A106" t="s">
         <v>128</v>
       </c>
       <c r="B106">
@@ -35889,7 +36059,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="10" t="s">
+      <c r="A107" t="s">
         <v>129</v>
       </c>
       <c r="B107">
@@ -35897,7 +36067,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="10" t="s">
+      <c r="A108" t="s">
         <v>130</v>
       </c>
       <c r="B108">
@@ -35905,7 +36075,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="10" t="s">
+      <c r="A109" t="s">
         <v>131</v>
       </c>
       <c r="B109">
@@ -35913,7 +36083,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="10" t="s">
+      <c r="A110" t="s">
         <v>132</v>
       </c>
       <c r="B110">
@@ -35921,7 +36091,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="10" t="s">
+      <c r="A111" t="s">
         <v>133</v>
       </c>
       <c r="B111">
@@ -35929,7 +36099,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="10" t="s">
+      <c r="A112" t="s">
         <v>134</v>
       </c>
       <c r="B112">
@@ -35937,7 +36107,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="10" t="s">
+      <c r="A113" t="s">
         <v>135</v>
       </c>
       <c r="B113">
@@ -35945,7 +36115,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="10" t="s">
+      <c r="A114" t="s">
         <v>136</v>
       </c>
       <c r="B114">
@@ -35953,17 +36123,17 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
+      <c r="A115" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="10" t="s">
+      <c r="A116" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="10" t="s">
+      <c r="A117" t="s">
         <v>139</v>
       </c>
       <c r="B117">
@@ -35971,7 +36141,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
+      <c r="A118" t="s">
         <v>140</v>
       </c>
       <c r="B118">
@@ -35979,12 +36149,12 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
+      <c r="A119" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="10" t="s">
+      <c r="A120" t="s">
         <v>143</v>
       </c>
       <c r="B120">
@@ -35992,7 +36162,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="10" t="s">
+      <c r="A121" t="s">
         <v>144</v>
       </c>
       <c r="B121">
@@ -36000,7 +36170,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="10" t="s">
+      <c r="A122" t="s">
         <v>145</v>
       </c>
       <c r="B122">
@@ -36008,7 +36178,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
+      <c r="A123" t="s">
         <v>146</v>
       </c>
       <c r="B123">
@@ -36016,7 +36186,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="10" t="s">
+      <c r="A124" t="s">
         <v>147</v>
       </c>
       <c r="B124">
@@ -36024,12 +36194,12 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="10" t="s">
+      <c r="A125" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
+      <c r="A126" t="s">
         <v>149</v>
       </c>
       <c r="B126">
@@ -36037,12 +36207,12 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="10" t="s">
+      <c r="A127" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="10" t="s">
+      <c r="A128" t="s">
         <v>151</v>
       </c>
       <c r="B128">
@@ -36050,7 +36220,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="10" t="s">
+      <c r="A129" t="s">
         <v>152</v>
       </c>
       <c r="B129">
@@ -36058,7 +36228,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="10" t="s">
+      <c r="A130" t="s">
         <v>153</v>
       </c>
       <c r="B130">
@@ -36066,7 +36236,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="10" t="s">
+      <c r="A131" t="s">
         <v>154</v>
       </c>
       <c r="B131">
@@ -36074,12 +36244,12 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="10" t="s">
+      <c r="A132" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
+      <c r="A133" t="s">
         <v>156</v>
       </c>
       <c r="B133">
@@ -36087,7 +36257,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="10" t="s">
+      <c r="A134" t="s">
         <v>157</v>
       </c>
       <c r="B134">
@@ -36095,7 +36265,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="10" t="s">
+      <c r="A135" t="s">
         <v>158</v>
       </c>
       <c r="B135">
@@ -36103,7 +36273,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="10" t="s">
+      <c r="A136" t="s">
         <v>159</v>
       </c>
       <c r="B136">
@@ -36111,7 +36281,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="10" t="s">
+      <c r="A137" t="s">
         <v>160</v>
       </c>
       <c r="B137">
@@ -36119,17 +36289,17 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="10" t="s">
+      <c r="A138" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="10" t="s">
+      <c r="A139" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="10" t="s">
+      <c r="A140" t="s">
         <v>163</v>
       </c>
       <c r="B140">
@@ -36137,7 +36307,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="10" t="s">
+      <c r="A141" t="s">
         <v>164</v>
       </c>
       <c r="B141">
@@ -36145,7 +36315,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="10" t="s">
+      <c r="A142" t="s">
         <v>165</v>
       </c>
       <c r="B142">
@@ -36153,7 +36323,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="10" t="s">
+      <c r="A143" t="s">
         <v>166</v>
       </c>
       <c r="B143">
@@ -36161,7 +36331,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="10" t="s">
+      <c r="A144" t="s">
         <v>167</v>
       </c>
       <c r="B144">
@@ -36169,7 +36339,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="10" t="s">
+      <c r="A145" t="s">
         <v>168</v>
       </c>
       <c r="B145">
@@ -36177,12 +36347,12 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="10" t="s">
+      <c r="A146" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="10" t="s">
+      <c r="A147" t="s">
         <v>170</v>
       </c>
       <c r="B147">
@@ -36190,12 +36360,12 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="10" t="s">
+      <c r="A148" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="10" t="s">
+      <c r="A149" t="s">
         <v>172</v>
       </c>
       <c r="B149">
@@ -36203,7 +36373,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" s="10" t="s">
+      <c r="A150" t="s">
         <v>173</v>
       </c>
       <c r="B150">
@@ -36211,7 +36381,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
+      <c r="A151" t="s">
         <v>174</v>
       </c>
       <c r="B151">
@@ -36219,7 +36389,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" s="10" t="s">
+      <c r="A152" t="s">
         <v>175</v>
       </c>
       <c r="B152">
@@ -36227,7 +36397,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" s="10" t="s">
+      <c r="A153" t="s">
         <v>176</v>
       </c>
       <c r="B153">
@@ -36235,12 +36405,12 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" s="10" t="s">
+      <c r="A154" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" s="10" t="s">
+      <c r="A155" t="s">
         <v>178</v>
       </c>
       <c r="B155">
@@ -36248,7 +36418,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" s="10" t="s">
+      <c r="A156" t="s">
         <v>179</v>
       </c>
       <c r="B156">
@@ -36256,12 +36426,12 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" s="10" t="s">
+      <c r="A157" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" s="10" t="s">
+      <c r="A158" t="s">
         <v>181</v>
       </c>
       <c r="B158">
@@ -36269,7 +36439,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" s="10" t="s">
+      <c r="A159" t="s">
         <v>182</v>
       </c>
       <c r="B159">
@@ -36277,7 +36447,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" s="10" t="s">
+      <c r="A160" t="s">
         <v>183</v>
       </c>
       <c r="B160">
@@ -36285,7 +36455,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" s="10" t="s">
+      <c r="A161" t="s">
         <v>184</v>
       </c>
       <c r="B161">
@@ -36293,12 +36463,12 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" s="10" t="s">
+      <c r="A162" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" s="10" t="s">
+      <c r="A163" t="s">
         <v>186</v>
       </c>
       <c r="B163">
@@ -36306,7 +36476,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" s="10" t="s">
+      <c r="A164" t="s">
         <v>187</v>
       </c>
       <c r="B164">
@@ -36314,12 +36484,12 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" s="10" t="s">
+      <c r="A165" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" s="10" t="s">
+      <c r="A166" t="s">
         <v>189</v>
       </c>
       <c r="B166">
@@ -36327,7 +36497,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" s="10" t="s">
+      <c r="A167" t="s">
         <v>190</v>
       </c>
       <c r="B167">
@@ -36335,7 +36505,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" s="10" t="s">
+      <c r="A168" t="s">
         <v>191</v>
       </c>
       <c r="B168">
@@ -36343,12 +36513,12 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" s="10" t="s">
+      <c r="A169" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" s="10" t="s">
+      <c r="A170" t="s">
         <v>193</v>
       </c>
       <c r="B170">
@@ -36356,7 +36526,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" s="10" t="s">
+      <c r="A171" t="s">
         <v>194</v>
       </c>
       <c r="B171">
@@ -36364,7 +36534,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" s="10" t="s">
+      <c r="A172" t="s">
         <v>195</v>
       </c>
       <c r="B172">
@@ -36372,7 +36542,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" s="10" t="s">
+      <c r="A173" t="s">
         <v>196</v>
       </c>
       <c r="B173">
@@ -36380,7 +36550,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" s="10" t="s">
+      <c r="A174" t="s">
         <v>197</v>
       </c>
       <c r="B174">
@@ -36388,12 +36558,12 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" s="10" t="s">
+      <c r="A175" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" s="10" t="s">
+      <c r="A176" t="s">
         <v>199</v>
       </c>
       <c r="B176">
@@ -36401,7 +36571,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" s="10" t="s">
+      <c r="A177" t="s">
         <v>200</v>
       </c>
       <c r="B177">
@@ -36409,7 +36579,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" s="10" t="s">
+      <c r="A178" t="s">
         <v>201</v>
       </c>
       <c r="B178">
@@ -36417,12 +36587,12 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" s="10" t="s">
+      <c r="A179" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" s="10" t="s">
+      <c r="A180" t="s">
         <v>203</v>
       </c>
       <c r="B180">
@@ -36430,17 +36600,17 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" s="10" t="s">
+      <c r="A181" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" s="10" t="s">
+      <c r="A182" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" s="10" t="s">
+      <c r="A183" t="s">
         <v>206</v>
       </c>
       <c r="B183">
@@ -36448,7 +36618,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" s="10" t="s">
+      <c r="A184" t="s">
         <v>207</v>
       </c>
       <c r="B184">
@@ -36456,7 +36626,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" s="10" t="s">
+      <c r="A185" t="s">
         <v>208</v>
       </c>
       <c r="B185">
@@ -36464,7 +36634,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" s="10" t="s">
+      <c r="A186" t="s">
         <v>209</v>
       </c>
       <c r="B186">
@@ -36472,17 +36642,17 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" s="10" t="s">
+      <c r="A187" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" s="10" t="s">
+      <c r="A188" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" s="10" t="s">
+      <c r="A189" t="s">
         <v>212</v>
       </c>
       <c r="B189">
@@ -36490,7 +36660,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" s="10" t="s">
+      <c r="A190" t="s">
         <v>213</v>
       </c>
       <c r="B190">
@@ -36498,7 +36668,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" s="10" t="s">
+      <c r="A191" t="s">
         <v>214</v>
       </c>
       <c r="B191">
@@ -36506,7 +36676,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" s="10" t="s">
+      <c r="A192" t="s">
         <v>215</v>
       </c>
       <c r="B192">
@@ -36514,7 +36684,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" s="10" t="s">
+      <c r="A193" t="s">
         <v>216</v>
       </c>
       <c r="B193">
@@ -36522,7 +36692,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" s="10" t="s">
+      <c r="A194" t="s">
         <v>217</v>
       </c>
       <c r="B194">
@@ -36530,7 +36700,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" s="10" t="s">
+      <c r="A195" t="s">
         <v>218</v>
       </c>
       <c r="B195">
@@ -36538,7 +36708,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" s="10" t="s">
+      <c r="A196" t="s">
         <v>219</v>
       </c>
       <c r="B196">
@@ -36546,7 +36716,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" s="10" t="s">
+      <c r="A197" t="s">
         <v>220</v>
       </c>
       <c r="B197">
@@ -36554,7 +36724,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" s="10" t="s">
+      <c r="A198" t="s">
         <v>221</v>
       </c>
       <c r="B198">
@@ -36562,7 +36732,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="10" t="s">
+      <c r="A199" t="s">
         <v>222</v>
       </c>
       <c r="B199">
@@ -36570,12 +36740,12 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" s="10" t="s">
+      <c r="A200" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" s="10" t="s">
+      <c r="A201" t="s">
         <v>224</v>
       </c>
       <c r="B201">
@@ -36583,7 +36753,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" s="10" t="s">
+      <c r="A202" t="s">
         <v>225</v>
       </c>
       <c r="B202">
@@ -36591,7 +36761,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="10" t="s">
+      <c r="A203" t="s">
         <v>226</v>
       </c>
       <c r="B203">
@@ -36599,7 +36769,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="10" t="s">
+      <c r="A204" t="s">
         <v>227</v>
       </c>
       <c r="B204">
@@ -36607,7 +36777,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="10" t="s">
+      <c r="A205" t="s">
         <v>228</v>
       </c>
       <c r="B205">
@@ -36615,7 +36785,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" s="10" t="s">
+      <c r="A206" t="s">
         <v>229</v>
       </c>
       <c r="B206">
@@ -36623,12 +36793,12 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="10" t="s">
+      <c r="A207" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" s="10" t="s">
+      <c r="A208" t="s">
         <v>231</v>
       </c>
       <c r="B208">
@@ -36636,7 +36806,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="10" t="s">
+      <c r="A209" t="s">
         <v>232</v>
       </c>
       <c r="B209">
@@ -36644,7 +36814,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="10" t="s">
+      <c r="A210" t="s">
         <v>233</v>
       </c>
       <c r="B210">
@@ -36652,7 +36822,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" s="10" t="s">
+      <c r="A211" t="s">
         <v>234</v>
       </c>
       <c r="B211">
@@ -36660,7 +36830,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" s="10" t="s">
+      <c r="A212" t="s">
         <v>235</v>
       </c>
       <c r="B212">
@@ -36668,7 +36838,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" s="10" t="s">
+      <c r="A213" t="s">
         <v>236</v>
       </c>
       <c r="B213">
@@ -36676,7 +36846,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" s="10" t="s">
+      <c r="A214" t="s">
         <v>237</v>
       </c>
       <c r="B214">
@@ -36684,7 +36854,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" s="10" t="s">
+      <c r="A215" t="s">
         <v>238</v>
       </c>
       <c r="B215">
@@ -36692,7 +36862,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" s="10" t="s">
+      <c r="A216" t="s">
         <v>239</v>
       </c>
       <c r="B216">
@@ -36700,7 +36870,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" s="10" t="s">
+      <c r="A217" t="s">
         <v>240</v>
       </c>
       <c r="B217">
@@ -36708,7 +36878,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" s="10" t="s">
+      <c r="A218" t="s">
         <v>241</v>
       </c>
       <c r="B218">
@@ -36716,7 +36886,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" s="10" t="s">
+      <c r="A219" t="s">
         <v>242</v>
       </c>
       <c r="B219">
@@ -36724,7 +36894,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="10" t="s">
+      <c r="A220" t="s">
         <v>243</v>
       </c>
       <c r="B220">
@@ -36732,7 +36902,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" s="10" t="s">
+      <c r="A221" t="s">
         <v>244</v>
       </c>
       <c r="B221">
@@ -36740,7 +36910,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" s="10" t="s">
+      <c r="A222" t="s">
         <v>245</v>
       </c>
       <c r="B222">
@@ -36748,7 +36918,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" s="10" t="s">
+      <c r="A223" t="s">
         <v>246</v>
       </c>
       <c r="B223">
@@ -36756,7 +36926,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" s="10" t="s">
+      <c r="A224" t="s">
         <v>247</v>
       </c>
       <c r="B224">
@@ -36764,7 +36934,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" s="10" t="s">
+      <c r="A225" t="s">
         <v>248</v>
       </c>
       <c r="B225">
@@ -36772,7 +36942,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" s="10" t="s">
+      <c r="A226" t="s">
         <v>249</v>
       </c>
       <c r="B226">
@@ -36780,12 +36950,12 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" s="10" t="s">
+      <c r="A227" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" s="10" t="s">
+      <c r="A228" t="s">
         <v>251</v>
       </c>
       <c r="B228">
@@ -36793,27 +36963,27 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" s="10" t="s">
+      <c r="A229" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" s="10" t="s">
+      <c r="A230" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" s="10" t="s">
+      <c r="A231" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" s="10" t="s">
+      <c r="A232" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" s="10" t="s">
+      <c r="A233" t="s">
         <v>256</v>
       </c>
       <c r="B233">
@@ -36821,7 +36991,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" s="10" t="s">
+      <c r="A234" t="s">
         <v>257</v>
       </c>
       <c r="B234">
@@ -36829,7 +36999,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" s="10" t="s">
+      <c r="A235" t="s">
         <v>258</v>
       </c>
       <c r="B235">
@@ -36837,7 +37007,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" s="10" t="s">
+      <c r="A236" t="s">
         <v>259</v>
       </c>
       <c r="B236">
@@ -36845,7 +37015,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" s="10" t="s">
+      <c r="A237" t="s">
         <v>260</v>
       </c>
       <c r="B237">
@@ -36853,7 +37023,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" s="10" t="s">
+      <c r="A238" t="s">
         <v>261</v>
       </c>
       <c r="B238">
@@ -36861,7 +37031,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" s="10" t="s">
+      <c r="A239" t="s">
         <v>262</v>
       </c>
       <c r="B239">
@@ -36869,7 +37039,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" s="10" t="s">
+      <c r="A240" t="s">
         <v>263</v>
       </c>
       <c r="B240">
@@ -36877,7 +37047,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" s="10" t="s">
+      <c r="A241" t="s">
         <v>264</v>
       </c>
       <c r="B241">
@@ -36885,7 +37055,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" s="10" t="s">
+      <c r="A242" t="s">
         <v>265</v>
       </c>
       <c r="B242">
@@ -36893,7 +37063,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" s="10" t="s">
+      <c r="A243" t="s">
         <v>266</v>
       </c>
       <c r="B243">
@@ -36901,7 +37071,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" s="10" t="s">
+      <c r="A244" t="s">
         <v>267</v>
       </c>
       <c r="B244">
@@ -36909,7 +37079,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" s="10" t="s">
+      <c r="A245" t="s">
         <v>268</v>
       </c>
       <c r="B245">
@@ -36917,7 +37087,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" s="10" t="s">
+      <c r="A246" t="s">
         <v>269</v>
       </c>
       <c r="B246">
@@ -36925,7 +37095,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" s="10" t="s">
+      <c r="A247" t="s">
         <v>270</v>
       </c>
       <c r="B247">
@@ -36933,7 +37103,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" s="10" t="s">
+      <c r="A248" t="s">
         <v>271</v>
       </c>
       <c r="B248">
@@ -36941,12 +37111,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" s="10" t="s">
+      <c r="A249" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" s="10" t="s">
+      <c r="A250" t="s">
         <v>273</v>
       </c>
       <c r="B250">
@@ -36954,7 +37124,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" s="10" t="s">
+      <c r="A251" t="s">
         <v>274</v>
       </c>
       <c r="B251">
@@ -36962,7 +37132,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" s="10" t="s">
+      <c r="A252" t="s">
         <v>275</v>
       </c>
       <c r="B252">
@@ -36970,7 +37140,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" s="10" t="s">
+      <c r="A253" t="s">
         <v>276</v>
       </c>
       <c r="B253">
@@ -36978,7 +37148,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" s="10" t="s">
+      <c r="A254" t="s">
         <v>277</v>
       </c>
       <c r="B254">
@@ -36986,7 +37156,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" s="10" t="s">
+      <c r="A255" t="s">
         <v>278</v>
       </c>
       <c r="B255">
@@ -36994,7 +37164,7 @@
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" s="10" t="s">
+      <c r="A256" t="s">
         <v>279</v>
       </c>
       <c r="B256">
@@ -37002,7 +37172,7 @@
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" s="10" t="s">
+      <c r="A257" t="s">
         <v>280</v>
       </c>
       <c r="B257">
@@ -37010,12 +37180,12 @@
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" s="10" t="s">
+      <c r="A258" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" s="10" t="s">
+      <c r="A259" t="s">
         <v>282</v>
       </c>
       <c r="B259">
@@ -37023,7 +37193,7 @@
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" s="10" t="s">
+      <c r="A260" t="s">
         <v>283</v>
       </c>
       <c r="B260">
@@ -37031,7 +37201,7 @@
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" s="10" t="s">
+      <c r="A261" t="s">
         <v>284</v>
       </c>
       <c r="B261">
@@ -37039,7 +37209,7 @@
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" s="10" t="s">
+      <c r="A262" t="s">
         <v>285</v>
       </c>
       <c r="B262">
@@ -37047,7 +37217,7 @@
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" s="10" t="s">
+      <c r="A263" t="s">
         <v>286</v>
       </c>
       <c r="B263">
@@ -37055,7 +37225,7 @@
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" s="10" t="s">
+      <c r="A264" t="s">
         <v>287</v>
       </c>
       <c r="B264">
@@ -37063,7 +37233,7 @@
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" s="10" t="s">
+      <c r="A265" t="s">
         <v>288</v>
       </c>
       <c r="B265">
@@ -37071,7 +37241,7 @@
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" s="10" t="s">
+      <c r="A266" t="s">
         <v>289</v>
       </c>
       <c r="B266">
@@ -37079,7 +37249,7 @@
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" s="10" t="s">
+      <c r="A267" t="s">
         <v>290</v>
       </c>
       <c r="B267">
@@ -37087,7 +37257,7 @@
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" s="10" t="s">
+      <c r="A268" t="s">
         <v>291</v>
       </c>
       <c r="B268">
@@ -37095,7 +37265,7 @@
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" s="10" t="s">
+      <c r="A269" t="s">
         <v>292</v>
       </c>
       <c r="B269">
@@ -37103,7 +37273,7 @@
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" s="10" t="s">
+      <c r="A270" t="s">
         <v>293</v>
       </c>
       <c r="B270">
@@ -37111,7 +37281,7 @@
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" s="10" t="s">
+      <c r="A271" t="s">
         <v>294</v>
       </c>
       <c r="B271">
@@ -37119,7 +37289,7 @@
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" s="10" t="s">
+      <c r="A272" t="s">
         <v>295</v>
       </c>
       <c r="B272">
@@ -37127,7 +37297,7 @@
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" s="10" t="s">
+      <c r="A273" t="s">
         <v>296</v>
       </c>
       <c r="B273">
@@ -37135,22 +37305,22 @@
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" s="10" t="s">
+      <c r="A274" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" s="10" t="s">
+      <c r="A275" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" s="10" t="s">
+      <c r="A276" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" s="10" t="s">
+      <c r="A277" t="s">
         <v>300</v>
       </c>
       <c r="B277">
@@ -37158,7 +37328,7 @@
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" s="10" t="s">
+      <c r="A278" t="s">
         <v>301</v>
       </c>
       <c r="B278">
@@ -37166,12 +37336,12 @@
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" s="10" t="s">
+      <c r="A279" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" s="10" t="s">
+      <c r="A280" t="s">
         <v>303</v>
       </c>
       <c r="B280">
@@ -37179,7 +37349,7 @@
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" s="10" t="s">
+      <c r="A281" t="s">
         <v>304</v>
       </c>
       <c r="B281">
@@ -37187,7 +37357,7 @@
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" s="10" t="s">
+      <c r="A282" t="s">
         <v>305</v>
       </c>
       <c r="B282">
@@ -37195,7 +37365,7 @@
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" s="10" t="s">
+      <c r="A283" t="s">
         <v>306</v>
       </c>
       <c r="B283">
@@ -37203,12 +37373,12 @@
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" s="10" t="s">
+      <c r="A284" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" s="10" t="s">
+      <c r="A285" t="s">
         <v>308</v>
       </c>
       <c r="B285">
@@ -37216,12 +37386,12 @@
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" s="10" t="s">
+      <c r="A286" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" s="10" t="s">
+      <c r="A287" t="s">
         <v>310</v>
       </c>
       <c r="B287">
@@ -37229,12 +37399,12 @@
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" s="10" t="s">
+      <c r="A288" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" s="10" t="s">
+      <c r="A289" t="s">
         <v>312</v>
       </c>
       <c r="B289">
@@ -37242,12 +37412,12 @@
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" s="10" t="s">
+      <c r="A290" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" s="10" t="s">
+      <c r="A291" t="s">
         <v>314</v>
       </c>
       <c r="B291">
@@ -37255,12 +37425,12 @@
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" s="10" t="s">
+      <c r="A292" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" s="10" t="s">
+      <c r="A293" t="s">
         <v>316</v>
       </c>
       <c r="B293">
@@ -37268,7 +37438,7 @@
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" s="10" t="s">
+      <c r="A294" t="s">
         <v>317</v>
       </c>
       <c r="B294">
@@ -37276,17 +37446,17 @@
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" s="10" t="s">
+      <c r="A295" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" s="10" t="s">
+      <c r="A296" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" s="10" t="s">
+      <c r="A297" t="s">
         <v>320</v>
       </c>
       <c r="B297">
@@ -37294,7 +37464,7 @@
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" s="10" t="s">
+      <c r="A298" t="s">
         <v>321</v>
       </c>
       <c r="B298">
@@ -37302,17 +37472,17 @@
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" s="10" t="s">
+      <c r="A299" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" s="10" t="s">
+      <c r="A300" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" s="10" t="s">
+      <c r="A301" t="s">
         <v>324</v>
       </c>
       <c r="B301">
@@ -37320,17 +37490,17 @@
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" s="10" t="s">
+      <c r="A302" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" s="10" t="s">
+      <c r="A303" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" s="10" t="s">
+      <c r="A304" t="s">
         <v>327</v>
       </c>
       <c r="B304">
@@ -37338,37 +37508,37 @@
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" s="10" t="s">
+      <c r="A305" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" s="10" t="s">
+      <c r="A306" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" s="10" t="s">
+      <c r="A307" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" s="10" t="s">
+      <c r="A308" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" s="10" t="s">
+      <c r="A309" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" s="10" t="s">
+      <c r="A310" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" s="10" t="s">
+      <c r="A311" t="s">
         <v>334</v>
       </c>
       <c r="B311">
@@ -37376,7 +37546,7 @@
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" s="10" t="s">
+      <c r="A312" t="s">
         <v>335</v>
       </c>
       <c r="B312">
@@ -37384,7 +37554,7 @@
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" s="10" t="s">
+      <c r="A313" t="s">
         <v>336</v>
       </c>
       <c r="B313">
@@ -37392,17 +37562,17 @@
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" s="10" t="s">
+      <c r="A314" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" s="10" t="s">
+      <c r="A315" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" s="10" t="s">
+      <c r="A316" t="s">
         <v>339</v>
       </c>
       <c r="B316">
@@ -37410,7 +37580,7 @@
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" s="10" t="s">
+      <c r="A317" t="s">
         <v>340</v>
       </c>
       <c r="B317">
@@ -37418,7 +37588,7 @@
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" s="10" t="s">
+      <c r="A318" t="s">
         <v>341</v>
       </c>
       <c r="B318">
@@ -37426,7 +37596,7 @@
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" s="10" t="s">
+      <c r="A319" t="s">
         <v>342</v>
       </c>
       <c r="B319">
@@ -37434,12 +37604,12 @@
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" s="10" t="s">
+      <c r="A320" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" s="10" t="s">
+      <c r="A321" t="s">
         <v>344</v>
       </c>
       <c r="B321">
@@ -37447,7 +37617,7 @@
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" s="10" t="s">
+      <c r="A322" t="s">
         <v>345</v>
       </c>
       <c r="B322">
@@ -37455,7 +37625,7 @@
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" s="10" t="s">
+      <c r="A323" t="s">
         <v>346</v>
       </c>
       <c r="B323">
@@ -37463,7 +37633,7 @@
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" s="10" t="s">
+      <c r="A324" t="s">
         <v>347</v>
       </c>
       <c r="B324">
@@ -37471,12 +37641,12 @@
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" s="10" t="s">
+      <c r="A325" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" s="10" t="s">
+      <c r="A326" t="s">
         <v>349</v>
       </c>
       <c r="B326">
@@ -37484,7 +37654,7 @@
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" s="10" t="s">
+      <c r="A327" t="s">
         <v>350</v>
       </c>
       <c r="B327">
@@ -37492,27 +37662,27 @@
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" s="10" t="s">
+      <c r="A328" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" s="10" t="s">
+      <c r="A329" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" s="10" t="s">
+      <c r="A330" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" s="10" t="s">
+      <c r="A331" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" s="10" t="s">
+      <c r="A332" t="s">
         <v>355</v>
       </c>
       <c r="B332">
@@ -37520,7 +37690,7 @@
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" s="10" t="s">
+      <c r="A333" t="s">
         <v>356</v>
       </c>
       <c r="B333">
@@ -37528,12 +37698,12 @@
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" s="10" t="s">
+      <c r="A334" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" s="10" t="s">
+      <c r="A335" t="s">
         <v>358</v>
       </c>
       <c r="B335">
@@ -37541,7 +37711,7 @@
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" s="10" t="s">
+      <c r="A336" t="s">
         <v>359</v>
       </c>
       <c r="B336">
@@ -37549,7 +37719,7 @@
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" s="10" t="s">
+      <c r="A337" t="s">
         <v>360</v>
       </c>
       <c r="B337">
@@ -37557,7 +37727,7 @@
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" s="10" t="s">
+      <c r="A338" t="s">
         <v>361</v>
       </c>
       <c r="B338">
@@ -37565,12 +37735,12 @@
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" s="10" t="s">
+      <c r="A339" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" s="10" t="s">
+      <c r="A340" t="s">
         <v>363</v>
       </c>
       <c r="B340">
@@ -37578,7 +37748,7 @@
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" s="10" t="s">
+      <c r="A341" t="s">
         <v>364</v>
       </c>
       <c r="B341">
@@ -37586,7 +37756,7 @@
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" s="10" t="s">
+      <c r="A342" t="s">
         <v>365</v>
       </c>
       <c r="B342">
@@ -37594,17 +37764,17 @@
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" s="10" t="s">
+      <c r="A343" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" s="10" t="s">
+      <c r="A344" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" s="10" t="s">
+      <c r="A345" t="s">
         <v>368</v>
       </c>
       <c r="B345">
@@ -37612,7 +37782,7 @@
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" s="10" t="s">
+      <c r="A346" t="s">
         <v>369</v>
       </c>
       <c r="B346">
@@ -37620,7 +37790,7 @@
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" s="10" t="s">
+      <c r="A347" t="s">
         <v>370</v>
       </c>
       <c r="B347">
@@ -37628,7 +37798,7 @@
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" s="10" t="s">
+      <c r="A348" t="s">
         <v>371</v>
       </c>
       <c r="B348">
@@ -37636,7 +37806,7 @@
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" s="10" t="s">
+      <c r="A349" t="s">
         <v>372</v>
       </c>
       <c r="B349">
@@ -37644,7 +37814,7 @@
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" s="10" t="s">
+      <c r="A350" t="s">
         <v>373</v>
       </c>
       <c r="B350">
@@ -37652,7 +37822,7 @@
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" s="10" t="s">
+      <c r="A351" t="s">
         <v>374</v>
       </c>
       <c r="B351">
@@ -37660,7 +37830,7 @@
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" s="10" t="s">
+      <c r="A352" t="s">
         <v>375</v>
       </c>
       <c r="B352">
@@ -37668,7 +37838,7 @@
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" s="10" t="s">
+      <c r="A353" t="s">
         <v>376</v>
       </c>
       <c r="B353">
@@ -37676,7 +37846,7 @@
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" s="10" t="s">
+      <c r="A354" t="s">
         <v>377</v>
       </c>
       <c r="B354">
@@ -37684,7 +37854,7 @@
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" s="10" t="s">
+      <c r="A355" t="s">
         <v>378</v>
       </c>
       <c r="B355">
@@ -37692,7 +37862,7 @@
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" s="10" t="s">
+      <c r="A356" t="s">
         <v>379</v>
       </c>
       <c r="B356">
@@ -37700,7 +37870,7 @@
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" s="10" t="s">
+      <c r="A357" t="s">
         <v>380</v>
       </c>
       <c r="B357">
@@ -37708,7 +37878,7 @@
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" s="10" t="s">
+      <c r="A358" t="s">
         <v>381</v>
       </c>
       <c r="B358">
@@ -37716,12 +37886,12 @@
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" s="10" t="s">
+      <c r="A359" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" s="10" t="s">
+      <c r="A360" t="s">
         <v>383</v>
       </c>
       <c r="B360">
@@ -37729,42 +37899,42 @@
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" s="10" t="s">
+      <c r="A361" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" s="10" t="s">
+      <c r="A362" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" s="10" t="s">
+      <c r="A363" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" s="10" t="s">
+      <c r="A364" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" s="10" t="s">
+      <c r="A365" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" s="10" t="s">
+      <c r="A366" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" s="10" t="s">
+      <c r="A367" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" s="10" t="s">
+      <c r="A368" t="s">
         <v>391</v>
       </c>
       <c r="B368">
@@ -37772,12 +37942,12 @@
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" s="10" t="s">
+      <c r="A369" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" s="10" t="s">
+      <c r="A370" t="s">
         <v>393</v>
       </c>
       <c r="B370">
@@ -37785,12 +37955,12 @@
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" s="10" t="s">
+      <c r="A371" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" s="10" t="s">
+      <c r="A372" t="s">
         <v>395</v>
       </c>
       <c r="B372">
@@ -37798,7 +37968,7 @@
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" s="10" t="s">
+      <c r="A373" t="s">
         <v>396</v>
       </c>
       <c r="B373">
@@ -37806,7 +37976,7 @@
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" s="10" t="s">
+      <c r="A374" t="s">
         <v>397</v>
       </c>
       <c r="B374">
@@ -37814,12 +37984,12 @@
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" s="10" t="s">
+      <c r="A375" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" s="10" t="s">
+      <c r="A376" t="s">
         <v>399</v>
       </c>
       <c r="B376">
@@ -37827,7 +37997,7 @@
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" s="10" t="s">
+      <c r="A377" t="s">
         <v>400</v>
       </c>
       <c r="B377">
@@ -37835,7 +38005,7 @@
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" s="10" t="s">
+      <c r="A378" t="s">
         <v>401</v>
       </c>
       <c r="B378">
@@ -37843,7 +38013,7 @@
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" s="10" t="s">
+      <c r="A379" t="s">
         <v>402</v>
       </c>
       <c r="B379">
@@ -37851,7 +38021,7 @@
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" s="10" t="s">
+      <c r="A380" t="s">
         <v>403</v>
       </c>
       <c r="B380">
@@ -37859,7 +38029,7 @@
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" s="10" t="s">
+      <c r="A381" t="s">
         <v>404</v>
       </c>
       <c r="B381">
@@ -37867,12 +38037,12 @@
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" s="10" t="s">
+      <c r="A382" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" s="10" t="s">
+      <c r="A383" t="s">
         <v>406</v>
       </c>
       <c r="B383">
@@ -37880,7 +38050,7 @@
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" s="10" t="s">
+      <c r="A384" t="s">
         <v>407</v>
       </c>
       <c r="B384">
@@ -37888,7 +38058,7 @@
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" s="10" t="s">
+      <c r="A385" t="s">
         <v>408</v>
       </c>
       <c r="B385">
@@ -37896,7 +38066,7 @@
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" s="10" t="s">
+      <c r="A386" t="s">
         <v>409</v>
       </c>
       <c r="B386">
@@ -37904,7 +38074,7 @@
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" s="10" t="s">
+      <c r="A387" t="s">
         <v>410</v>
       </c>
       <c r="B387">
@@ -37912,7 +38082,7 @@
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" s="10" t="s">
+      <c r="A388" t="s">
         <v>411</v>
       </c>
       <c r="B388">
@@ -37920,7 +38090,7 @@
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" s="10" t="s">
+      <c r="A389" t="s">
         <v>412</v>
       </c>
       <c r="B389">
@@ -37928,12 +38098,12 @@
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" s="10" t="s">
+      <c r="A390" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" s="10" t="s">
+      <c r="A391" t="s">
         <v>414</v>
       </c>
       <c r="B391">
@@ -37941,7 +38111,7 @@
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" s="10" t="s">
+      <c r="A392" t="s">
         <v>415</v>
       </c>
       <c r="B392">
@@ -37949,7 +38119,7 @@
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" s="10" t="s">
+      <c r="A393" t="s">
         <v>416</v>
       </c>
       <c r="B393">
@@ -37957,17 +38127,17 @@
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" s="10" t="s">
+      <c r="A394" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" s="10" t="s">
+      <c r="A395" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" s="10" t="s">
+      <c r="A396" t="s">
         <v>419</v>
       </c>
       <c r="B396">
@@ -37975,7 +38145,7 @@
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" s="10" t="s">
+      <c r="A397" t="s">
         <v>420</v>
       </c>
       <c r="B397">
@@ -37983,7 +38153,7 @@
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" s="10" t="s">
+      <c r="A398" t="s">
         <v>421</v>
       </c>
       <c r="B398">
@@ -37991,7 +38161,7 @@
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" s="10" t="s">
+      <c r="A399" t="s">
         <v>422</v>
       </c>
       <c r="B399">
@@ -37999,12 +38169,12 @@
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" s="10" t="s">
+      <c r="A400" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" s="10" t="s">
+      <c r="A401" t="s">
         <v>424</v>
       </c>
       <c r="B401">
@@ -38012,7 +38182,7 @@
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" s="10" t="s">
+      <c r="A402" t="s">
         <v>425</v>
       </c>
       <c r="B402">
@@ -38020,7 +38190,7 @@
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" s="10" t="s">
+      <c r="A403" t="s">
         <v>426</v>
       </c>
       <c r="B403">
@@ -38028,7 +38198,7 @@
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" s="10" t="s">
+      <c r="A404" t="s">
         <v>427</v>
       </c>
       <c r="B404">
@@ -38036,7 +38206,7 @@
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" s="10" t="s">
+      <c r="A405" t="s">
         <v>428</v>
       </c>
       <c r="B405">
@@ -38044,7 +38214,7 @@
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" s="10" t="s">
+      <c r="A406" t="s">
         <v>429</v>
       </c>
       <c r="B406">
@@ -38052,12 +38222,12 @@
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" s="10" t="s">
+      <c r="A407" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" s="10" t="s">
+      <c r="A408" t="s">
         <v>431</v>
       </c>
       <c r="B408">
@@ -38065,7 +38235,7 @@
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" s="10" t="s">
+      <c r="A409" t="s">
         <v>432</v>
       </c>
       <c r="B409">
@@ -38073,7 +38243,7 @@
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" s="10" t="s">
+      <c r="A410" t="s">
         <v>433</v>
       </c>
       <c r="B410">
@@ -38081,7 +38251,7 @@
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" s="10" t="s">
+      <c r="A411" t="s">
         <v>434</v>
       </c>
       <c r="B411">
@@ -38089,7 +38259,7 @@
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" s="10" t="s">
+      <c r="A412" t="s">
         <v>435</v>
       </c>
       <c r="B412">
@@ -38097,7 +38267,7 @@
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" s="10" t="s">
+      <c r="A413" t="s">
         <v>436</v>
       </c>
       <c r="B413">
@@ -38105,7 +38275,7 @@
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" s="10" t="s">
+      <c r="A414" t="s">
         <v>437</v>
       </c>
       <c r="B414">
@@ -38113,7 +38283,7 @@
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" s="10" t="s">
+      <c r="A415" t="s">
         <v>438</v>
       </c>
       <c r="B415">
@@ -38121,7 +38291,7 @@
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" s="10" t="s">
+      <c r="A416" t="s">
         <v>439</v>
       </c>
       <c r="B416">
@@ -38129,7 +38299,7 @@
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" s="10" t="s">
+      <c r="A417" t="s">
         <v>440</v>
       </c>
       <c r="B417">
@@ -38137,12 +38307,12 @@
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" s="10" t="s">
+      <c r="A418" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" s="10" t="s">
+      <c r="A419" t="s">
         <v>442</v>
       </c>
       <c r="B419">
@@ -38150,7 +38320,7 @@
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" s="10" t="s">
+      <c r="A420" t="s">
         <v>443</v>
       </c>
       <c r="B420">
@@ -38158,7 +38328,7 @@
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" s="10" t="s">
+      <c r="A421" t="s">
         <v>444</v>
       </c>
       <c r="B421">
@@ -38166,7 +38336,7 @@
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" s="10" t="s">
+      <c r="A422" t="s">
         <v>445</v>
       </c>
       <c r="B422">
@@ -38174,7 +38344,7 @@
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" s="10" t="s">
+      <c r="A423" t="s">
         <v>446</v>
       </c>
       <c r="B423">
@@ -38182,7 +38352,7 @@
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" s="10" t="s">
+      <c r="A424" t="s">
         <v>447</v>
       </c>
       <c r="B424">
@@ -38190,7 +38360,7 @@
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" s="10" t="s">
+      <c r="A425" t="s">
         <v>448</v>
       </c>
       <c r="B425">
@@ -38198,7 +38368,7 @@
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" s="10" t="s">
+      <c r="A426" t="s">
         <v>449</v>
       </c>
       <c r="B426">
@@ -38206,7 +38376,7 @@
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" s="10" t="s">
+      <c r="A427" t="s">
         <v>450</v>
       </c>
       <c r="B427">
@@ -38214,7 +38384,7 @@
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" s="10" t="s">
+      <c r="A428" t="s">
         <v>451</v>
       </c>
       <c r="B428">
@@ -38222,17 +38392,17 @@
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" s="10" t="s">
+      <c r="A429" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" s="10" t="s">
+      <c r="A430" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" s="10" t="s">
+      <c r="A431" t="s">
         <v>454</v>
       </c>
       <c r="B431">
@@ -38240,7 +38410,7 @@
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" s="10" t="s">
+      <c r="A432" t="s">
         <v>455</v>
       </c>
       <c r="B432">
@@ -38248,12 +38418,12 @@
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" s="10" t="s">
+      <c r="A433" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" s="10" t="s">
+      <c r="A434" t="s">
         <v>457</v>
       </c>
       <c r="B434">
@@ -38261,7 +38431,7 @@
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" s="10" t="s">
+      <c r="A435" t="s">
         <v>458</v>
       </c>
       <c r="B435">
@@ -38269,7 +38439,7 @@
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" s="10" t="s">
+      <c r="A436" t="s">
         <v>459</v>
       </c>
       <c r="B436">
@@ -38277,12 +38447,12 @@
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" s="10" t="s">
+      <c r="A437" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" s="10" t="s">
+      <c r="A438" t="s">
         <v>461</v>
       </c>
       <c r="B438">
@@ -38290,7 +38460,7 @@
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" s="10" t="s">
+      <c r="A439" t="s">
         <v>462</v>
       </c>
       <c r="B439">
@@ -38298,7 +38468,7 @@
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" s="10" t="s">
+      <c r="A440" t="s">
         <v>463</v>
       </c>
       <c r="B440">
@@ -38306,7 +38476,7 @@
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" s="10" t="s">
+      <c r="A441" t="s">
         <v>464</v>
       </c>
       <c r="B441">
@@ -38314,12 +38484,12 @@
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" s="10" t="s">
+      <c r="A442" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" s="10" t="s">
+      <c r="A443" t="s">
         <v>466</v>
       </c>
       <c r="B443">
@@ -38327,7 +38497,7 @@
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" s="10" t="s">
+      <c r="A444" t="s">
         <v>467</v>
       </c>
       <c r="B444">
@@ -38335,7 +38505,7 @@
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" s="10" t="s">
+      <c r="A445" t="s">
         <v>468</v>
       </c>
       <c r="B445">
@@ -38343,7 +38513,7 @@
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" s="10" t="s">
+      <c r="A446" t="s">
         <v>469</v>
       </c>
       <c r="B446">
@@ -38351,7 +38521,7 @@
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" s="10" t="s">
+      <c r="A447" t="s">
         <v>470</v>
       </c>
       <c r="B447">
@@ -38359,7 +38529,7 @@
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" s="10" t="s">
+      <c r="A448" t="s">
         <v>471</v>
       </c>
       <c r="B448">
@@ -38367,7 +38537,7 @@
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" s="10" t="s">
+      <c r="A449" t="s">
         <v>472</v>
       </c>
       <c r="B449">
@@ -38375,7 +38545,7 @@
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" s="10" t="s">
+      <c r="A450" t="s">
         <v>473</v>
       </c>
       <c r="B450">
@@ -38383,7 +38553,7 @@
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" s="10" t="s">
+      <c r="A451" t="s">
         <v>474</v>
       </c>
       <c r="B451">
@@ -38391,7 +38561,7 @@
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" s="10" t="s">
+      <c r="A452" t="s">
         <v>475</v>
       </c>
       <c r="B452">
@@ -38399,7 +38569,7 @@
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" s="10" t="s">
+      <c r="A453" t="s">
         <v>476</v>
       </c>
       <c r="B453">
@@ -38407,12 +38577,12 @@
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" s="10" t="s">
+      <c r="A454" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" s="10" t="s">
+      <c r="A455" t="s">
         <v>478</v>
       </c>
       <c r="B455">
@@ -38420,12 +38590,12 @@
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" s="10" t="s">
+      <c r="A456" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" s="10" t="s">
+      <c r="A457" t="s">
         <v>480</v>
       </c>
       <c r="B457">
@@ -38433,7 +38603,7 @@
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" s="10" t="s">
+      <c r="A458" t="s">
         <v>481</v>
       </c>
       <c r="B458">
@@ -38441,7 +38611,7 @@
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" s="10" t="s">
+      <c r="A459" t="s">
         <v>482</v>
       </c>
       <c r="B459">
@@ -38449,12 +38619,12 @@
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" s="10" t="s">
+      <c r="A460" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" s="10" t="s">
+      <c r="A461" t="s">
         <v>484</v>
       </c>
       <c r="B461">
@@ -38462,7 +38632,7 @@
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" s="10" t="s">
+      <c r="A462" t="s">
         <v>485</v>
       </c>
       <c r="B462">
@@ -38470,7 +38640,7 @@
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" s="10" t="s">
+      <c r="A463" t="s">
         <v>486</v>
       </c>
       <c r="B463">
@@ -38478,7 +38648,7 @@
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" s="10" t="s">
+      <c r="A464" t="s">
         <v>487</v>
       </c>
       <c r="B464">
@@ -38486,12 +38656,12 @@
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" s="10" t="s">
+      <c r="A465" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" s="10" t="s">
+      <c r="A466" t="s">
         <v>489</v>
       </c>
       <c r="B466">
@@ -38499,7 +38669,7 @@
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" s="10" t="s">
+      <c r="A467" t="s">
         <v>490</v>
       </c>
       <c r="B467">
@@ -38507,7 +38677,7 @@
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" s="10" t="s">
+      <c r="A468" t="s">
         <v>491</v>
       </c>
       <c r="B468">
@@ -38515,7 +38685,7 @@
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" s="10" t="s">
+      <c r="A469" t="s">
         <v>492</v>
       </c>
       <c r="B469">
@@ -38523,12 +38693,12 @@
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" s="10" t="s">
+      <c r="A470" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" s="10" t="s">
+      <c r="A471" t="s">
         <v>494</v>
       </c>
       <c r="B471">
@@ -38536,7 +38706,7 @@
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" s="10" t="s">
+      <c r="A472" t="s">
         <v>495</v>
       </c>
       <c r="B472">
@@ -38544,7 +38714,7 @@
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" s="10" t="s">
+      <c r="A473" t="s">
         <v>496</v>
       </c>
       <c r="B473">
@@ -38552,7 +38722,7 @@
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" s="10" t="s">
+      <c r="A474" t="s">
         <v>497</v>
       </c>
       <c r="B474">
@@ -38560,12 +38730,12 @@
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" s="10" t="s">
+      <c r="A475" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" s="10" t="s">
+      <c r="A476" t="s">
         <v>499</v>
       </c>
       <c r="B476">
@@ -38573,7 +38743,7 @@
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" s="10" t="s">
+      <c r="A477" t="s">
         <v>500</v>
       </c>
       <c r="B477">
@@ -38581,7 +38751,7 @@
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" s="10" t="s">
+      <c r="A478" t="s">
         <v>501</v>
       </c>
       <c r="B478">
@@ -38589,7 +38759,7 @@
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" s="10" t="s">
+      <c r="A479" t="s">
         <v>502</v>
       </c>
       <c r="B479">
@@ -38597,7 +38767,7 @@
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" s="10" t="s">
+      <c r="A480" t="s">
         <v>503</v>
       </c>
       <c r="B480">
@@ -38605,7 +38775,7 @@
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" s="10" t="s">
+      <c r="A481" t="s">
         <v>504</v>
       </c>
       <c r="B481">
@@ -38613,7 +38783,7 @@
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" s="10" t="s">
+      <c r="A482" t="s">
         <v>505</v>
       </c>
       <c r="B482">
@@ -38621,7 +38791,7 @@
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" s="10" t="s">
+      <c r="A483" t="s">
         <v>506</v>
       </c>
       <c r="B483">
@@ -38629,7 +38799,7 @@
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" s="10" t="s">
+      <c r="A484" t="s">
         <v>507</v>
       </c>
       <c r="B484">
@@ -38637,7 +38807,7 @@
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" s="10" t="s">
+      <c r="A485" t="s">
         <v>508</v>
       </c>
       <c r="B485">
@@ -38645,7 +38815,7 @@
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" s="10" t="s">
+      <c r="A486" t="s">
         <v>509</v>
       </c>
       <c r="B486">
@@ -38653,7 +38823,7 @@
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" s="10" t="s">
+      <c r="A487" t="s">
         <v>510</v>
       </c>
       <c r="B487">
@@ -38661,7 +38831,7 @@
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" s="10" t="s">
+      <c r="A488" t="s">
         <v>511</v>
       </c>
       <c r="B488">
@@ -38669,7 +38839,7 @@
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" s="10" t="s">
+      <c r="A489" t="s">
         <v>512</v>
       </c>
       <c r="B489">
@@ -38677,12 +38847,12 @@
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" s="10" t="s">
+      <c r="A490" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" s="10" t="s">
+      <c r="A491" t="s">
         <v>514</v>
       </c>
       <c r="B491">
@@ -38690,7 +38860,7 @@
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" s="10" t="s">
+      <c r="A492" t="s">
         <v>515</v>
       </c>
       <c r="B492">
@@ -38698,7 +38868,7 @@
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" s="10" t="s">
+      <c r="A493" t="s">
         <v>516</v>
       </c>
       <c r="B493">
@@ -38706,7 +38876,7 @@
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" s="10" t="s">
+      <c r="A494" t="s">
         <v>517</v>
       </c>
       <c r="B494">
@@ -38714,7 +38884,7 @@
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" s="10" t="s">
+      <c r="A495" t="s">
         <v>518</v>
       </c>
       <c r="B495">
@@ -38722,12 +38892,12 @@
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" s="10" t="s">
+      <c r="A496" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" s="10" t="s">
+      <c r="A497" t="s">
         <v>520</v>
       </c>
       <c r="B497">
@@ -38735,7 +38905,7 @@
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" s="10" t="s">
+      <c r="A498" t="s">
         <v>521</v>
       </c>
       <c r="B498">
@@ -38743,7 +38913,7 @@
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" s="10" t="s">
+      <c r="A499" t="s">
         <v>522</v>
       </c>
       <c r="B499">
@@ -38751,7 +38921,7 @@
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" s="10" t="s">
+      <c r="A500" t="s">
         <v>523</v>
       </c>
       <c r="B500">
@@ -38759,12 +38929,12 @@
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" s="10" t="s">
+      <c r="A501" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" s="10" t="s">
+      <c r="A502" t="s">
         <v>525</v>
       </c>
       <c r="B502">
@@ -38772,7 +38942,7 @@
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" s="10" t="s">
+      <c r="A503" t="s">
         <v>526</v>
       </c>
       <c r="B503">
@@ -38780,7 +38950,7 @@
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" s="10" t="s">
+      <c r="A504" t="s">
         <v>527</v>
       </c>
       <c r="B504">
@@ -38788,7 +38958,7 @@
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" s="10" t="s">
+      <c r="A505" t="s">
         <v>528</v>
       </c>
       <c r="B505">
@@ -38796,7 +38966,7 @@
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" s="10" t="s">
+      <c r="A506" t="s">
         <v>529</v>
       </c>
       <c r="B506">
@@ -38804,7 +38974,7 @@
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" s="10" t="s">
+      <c r="A507" t="s">
         <v>530</v>
       </c>
       <c r="B507">
@@ -38812,12 +38982,12 @@
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" s="10" t="s">
+      <c r="A508" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" s="10" t="s">
+      <c r="A509" t="s">
         <v>532</v>
       </c>
       <c r="B509">
@@ -38825,7 +38995,7 @@
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" s="10" t="s">
+      <c r="A510" t="s">
         <v>533</v>
       </c>
       <c r="B510">
@@ -38833,7 +39003,7 @@
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" s="10" t="s">
+      <c r="A511" t="s">
         <v>534</v>
       </c>
       <c r="B511">
@@ -38841,7 +39011,7 @@
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" s="10" t="s">
+      <c r="A512" t="s">
         <v>535</v>
       </c>
       <c r="B512">
@@ -38849,7 +39019,7 @@
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" s="10" t="s">
+      <c r="A513" t="s">
         <v>536</v>
       </c>
       <c r="B513">
@@ -38857,7 +39027,7 @@
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" s="10" t="s">
+      <c r="A514" t="s">
         <v>537</v>
       </c>
       <c r="B514">
@@ -38865,7 +39035,7 @@
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" s="10" t="s">
+      <c r="A515" t="s">
         <v>538</v>
       </c>
       <c r="B515">
@@ -38873,7 +39043,7 @@
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" s="10" t="s">
+      <c r="A516" t="s">
         <v>539</v>
       </c>
       <c r="B516">
@@ -38881,7 +39051,7 @@
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" s="10" t="s">
+      <c r="A517" t="s">
         <v>540</v>
       </c>
       <c r="B517">
@@ -38889,12 +39059,12 @@
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A518" s="10" t="s">
+      <c r="A518" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A519" s="10" t="s">
+      <c r="A519" t="s">
         <v>542</v>
       </c>
       <c r="B519">
@@ -38902,7 +39072,7 @@
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A520" s="10" t="s">
+      <c r="A520" t="s">
         <v>543</v>
       </c>
       <c r="B520">
@@ -38910,7 +39080,7 @@
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A521" s="10" t="s">
+      <c r="A521" t="s">
         <v>544</v>
       </c>
       <c r="B521">
@@ -38918,12 +39088,12 @@
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A522" s="10" t="s">
+      <c r="A522" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A523" s="10" t="s">
+      <c r="A523" t="s">
         <v>546</v>
       </c>
       <c r="B523">
@@ -38931,17 +39101,17 @@
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A524" s="10" t="s">
+      <c r="A524" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A525" s="10" t="s">
+      <c r="A525" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A526" s="10" t="s">
+      <c r="A526" t="s">
         <v>549</v>
       </c>
       <c r="B526">
@@ -38949,7 +39119,7 @@
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A527" s="10" t="s">
+      <c r="A527" t="s">
         <v>550</v>
       </c>
       <c r="B527">
@@ -38957,7 +39127,7 @@
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A528" s="10" t="s">
+      <c r="A528" t="s">
         <v>551</v>
       </c>
       <c r="B528">
@@ -38965,7 +39135,7 @@
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A529" s="10" t="s">
+      <c r="A529" t="s">
         <v>552</v>
       </c>
       <c r="B529">
@@ -38973,7 +39143,7 @@
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A530" s="10" t="s">
+      <c r="A530" t="s">
         <v>553</v>
       </c>
       <c r="B530">
